--- a/Excel/Task_1/Solution_1.xlsx
+++ b/Excel/Task_1/Solution_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikhlyantsevAA\Desktop\Portfolio_Analytics\Excel\Task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE62A08-A9A5-46A8-88C4-95503EC60FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9ECE2-EA2D-4DF6-B633-962870A6AC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="37">
   <si>
     <t>ID заказа</t>
   </si>
@@ -240,6 +240,9 @@
   <si>
     <t>Общий итог</t>
   </si>
+  <si>
+    <t>набор "Мечта"</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +253,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,9 +290,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -347,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,28 +364,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{5B97AF53-6D85-4E70-8173-D7F0258BBBE4}"/>
     <cellStyle name="Обычный_DHL" xfId="1" xr:uid="{2CCB6133-C372-473E-A84A-FABCAB0B4F55}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="69">
     <dxf>
       <alignment vertical="bottom"/>
     </dxf>
@@ -462,6 +474,176 @@
         <b val="0"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -495,8 +677,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Город">
@@ -519,7 +701,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -569,12 +751,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Дата поставки">
@@ -592,12 +774,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Дата поставки"/>
+              <tsle:timeslicer name="Дата поставки"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -33376,7 +33558,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Технолог" refreshedDate="45492.551000694446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="256" xr:uid="{C24125C0-2963-43A0-ACE5-6790C2D25A72}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Технолог" refreshedDate="45492.673765162035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="256" xr:uid="{C24125C0-2963-43A0-ACE5-6790C2D25A72}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H257" sheet="ПРОДАЖИ НАБОРЫ" r:id="rId2"/>
   </cacheSource>
@@ -33620,10 +33802,10 @@
         <s v="набор &quot;Прелесть&quot;"/>
         <s v="набор &quot;Нежность&quot;"/>
         <s v="набор &quot;Доброта&quot;"/>
-        <s v="набор &quot;Красота&quot;"/>
+        <s v="набор &quot;Мечта&quot;"/>
         <s v="набор &quot;Улыбка&quot;"/>
         <s v="набор &quot;Радость&quot;"/>
-        <s v="набор &quot;Мечта&quot;" u="1"/>
+        <s v="набор &quot;Красота&quot;" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Количество, шт" numFmtId="0">
@@ -36223,7 +36405,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A94921E9-E5E2-4424-ACA0-8488CF4ADE1E}" name="Отчёт Наборы" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A94921E9-E5E2-4424-ACA0-8488CF4ADE1E}" name="Отчёт Наборы" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="B9:L42" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField dataField="1" compact="0" showAll="0" insertBlankRow="1"/>
@@ -36249,8 +36431,8 @@
     <pivotField axis="axisRow" compact="0" showAll="0" insertBlankRow="1" sortType="ascending">
       <items count="8">
         <item x="2"/>
+        <item m="1" x="6"/>
         <item x="3"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item x="0"/>
         <item x="5"/>
@@ -36271,8 +36453,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1"/>
-    <pivotField dataField="1" compact="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1"/>
+    <pivotField dataField="1" compact="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" insertBlankRow="1" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="7"/>
@@ -36286,7 +36468,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -36310,7 +36492,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -36334,7 +36516,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -36358,7 +36540,7 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -36435,17 +36617,17 @@
     <dataField name="Сумма, евро" fld="9" baseField="7" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="0">
+    <format dxfId="68">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="66">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36454,7 +36636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="65">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36463,7 +36645,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="64">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36472,7 +36654,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36481,7 +36663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="62">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36490,7 +36672,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -36504,7 +36686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -36518,7 +36700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36527,7 +36709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36536,7 +36718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36545,7 +36727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="56">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36554,7 +36736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36563,7 +36745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36572,7 +36754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="8">
@@ -36588,7 +36770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="8">
@@ -36604,7 +36786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36613,7 +36795,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36622,7 +36804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -36631,7 +36813,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="9">
@@ -36648,7 +36830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="47">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36657,7 +36839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="46">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36668,24 +36850,24 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat scope="field" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="0" selected="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat scope="field" priority="2">
       <pivotAreas count="1">
         <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="2" count="0" selected="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat scope="field" priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
             </reference>
             <reference field="2" count="0" selected="0"/>
           </references>
@@ -36777,23 +36959,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="30" name="Дата поставки">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="43617"/>
-            <customFilter operator="lessThanOrEqual" val="43708"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -37129,8 +37294,7 @@
   <pivotTables>
     <pivotTable tabId="3" name="Отчёт Наборы"/>
   </pivotTables>
-  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="6886153" filterType="dateBetween">
-    <selection startDate="2019-06-01T00:00:00" endDate="2019-08-31T00:00:00"/>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="6886153" filterType="unknown">
     <bounds startDate="2019-01-01T00:00:00" endDate="2020-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -37144,27 +37308,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEE3FC5-EA8B-442D-8EB9-B0FADE673A8C}">
-  <dimension ref="B6:L42"/>
+  <dimension ref="B9:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -37187,979 +37350,1032 @@
     <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:12" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
-        <v>770400</v>
-      </c>
-      <c r="E10" s="2">
-        <v>283</v>
-      </c>
-      <c r="G10" s="2">
-        <v>29</v>
-      </c>
-      <c r="H10" s="7">
-        <v>26565.517241379312</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.36866535866392303</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="C10"/>
+      <c r="D10" s="5">
+        <v>1545200</v>
+      </c>
+      <c r="E10" s="6">
+        <v>591</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>64</v>
+      </c>
+      <c r="H10" s="5">
+        <v>24143.75</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.27413202760480421</v>
+      </c>
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="9">
-        <v>8855.1724137931033</v>
-      </c>
-      <c r="L10" s="10">
-        <v>8025</v>
+      <c r="K10" s="8">
+        <v>17760.919540229886</v>
+      </c>
+      <c r="L10" s="9">
+        <v>16095.833333333334</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
-        <v>21600</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="5">
+        <v>162000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>90</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>16200</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.8740220341689285E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.10484079730779187</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1862.0689655172414</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5">
+        <v>353400</v>
+      </c>
+      <c r="E12" s="6">
+        <v>93</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5">
+        <v>32127.272727272728</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6.269625844909256E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.22870825783070153</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4062.0689655172414</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3681.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>154500</v>
+      </c>
+      <c r="E13" s="6">
+        <v>103</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>15450</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2.7409654585129596E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>9.998705669169039E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1775.8620689655172</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1609.375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>267500</v>
+      </c>
+      <c r="E14" s="6">
+        <v>107</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H14" s="5">
+        <v>22291.666666666668</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4.7456845317295583E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.17311674864095264</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3074.7126436781609</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2786.4583333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14">
+        <v>442800</v>
+      </c>
+      <c r="E15" s="15">
+        <v>123</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>11</v>
+      </c>
+      <c r="H15" s="14">
+        <v>40254.545454545456</v>
+      </c>
+      <c r="I15" s="16">
+        <v>7.8556602267284045E-2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.28656484597463111</v>
+      </c>
+      <c r="K15" s="17">
+        <v>5089.6551724137935</v>
+      </c>
+      <c r="L15" s="18">
+        <v>4612.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <v>165000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>75</v>
+      </c>
+      <c r="F16" s="6">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>16500</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.9272446644313162E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.10678229355423247</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1896.5517241379309</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1718.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" s="5">
+        <v>1333300</v>
+      </c>
+      <c r="E18" s="6">
+        <v>542</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20201.515151515152</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.23653910976280448</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>15325.28735632184</v>
+      </c>
+      <c r="L18" s="9">
+        <v>13888.541666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>196200</v>
+      </c>
+      <c r="E19" s="6">
+        <v>109</v>
+      </c>
+      <c r="F19" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="7">
-        <v>10800</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1.0336411925156721E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2.8037383177570093E-2</v>
-      </c>
-      <c r="K11" s="9">
-        <v>248.27586206896552</v>
-      </c>
-      <c r="L11" s="10">
-        <v>225</v>
+      <c r="G19" s="6">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
+        <v>16350</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3.4807600191601472E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.14715367884197106</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2255.1724137931033</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2043.75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
-        <v>243200</v>
-      </c>
-      <c r="E12" s="2">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5">
+        <v>319200</v>
+      </c>
+      <c r="E20" s="6">
+        <v>84</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>31920</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5.6628878599180373E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.23940598514962874</v>
+      </c>
+      <c r="K20" s="8">
+        <v>3668.9655172413795</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
+        <v>144000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2.5546862525946033E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.10800270006750169</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1655.1724137931035</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5">
+        <v>172500</v>
+      </c>
+      <c r="E22" s="6">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>17250</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3.0603012400872851E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.12937823445586139</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1982.7586206896551</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1796.875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="14">
+        <v>248400</v>
+      </c>
+      <c r="E23" s="15">
+        <v>69</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15">
+        <v>11</v>
+      </c>
+      <c r="H23" s="14">
+        <v>22581.81818181818</v>
+      </c>
+      <c r="I23" s="16">
+        <v>4.4068337857256903E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.18630465761644041</v>
+      </c>
+      <c r="K23" s="17">
+        <v>2855.1724137931033</v>
+      </c>
+      <c r="L23" s="18">
+        <v>2587.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5">
+        <v>253000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>115</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5">
+        <v>23000</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.4884418187946848E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.18975474386859673</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2908.0459770114944</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2635.4166666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" s="5">
+        <v>1351600</v>
+      </c>
+      <c r="E26" s="6">
+        <v>505</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>63</v>
+      </c>
+      <c r="H26" s="5">
+        <v>21453.968253968254</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.23978569020881013</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>15535.632183908046</v>
+      </c>
+      <c r="L26" s="9">
+        <v>14079.166666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5">
+        <v>127800</v>
+      </c>
+      <c r="E27" s="6">
+        <v>71</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11618.181818181818</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2.2672840491777105E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>9.45546019532406E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1468.9655172413793</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1331.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5">
+        <v>406600</v>
+      </c>
+      <c r="E28" s="6">
+        <v>107</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5">
+        <v>40660</v>
+      </c>
+      <c r="I28" s="7">
+        <v>7.2134404882289282E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.30082864752885469</v>
+      </c>
+      <c r="K28" s="8">
+        <v>4673.5632183908046</v>
+      </c>
+      <c r="L28" s="9">
+        <v>4235.416666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5">
+        <v>94500</v>
+      </c>
+      <c r="E29" s="6">
+        <v>63</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9450</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.6765128532652083E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>6.9917135247114529E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1086.2068965517242</v>
+      </c>
+      <c r="L29" s="9">
+        <v>984.375</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5">
+        <v>237500</v>
+      </c>
+      <c r="E30" s="6">
+        <v>95</v>
+      </c>
+      <c r="F30" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="2">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
-        <v>34742.857142857145</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.11638034167583863</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.31568016614745587</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2795.4022988505749</v>
-      </c>
-      <c r="L12" s="10">
-        <v>2533.3333333333335</v>
+      <c r="G30" s="6">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>23750</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.2134582291056821E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.17571766794909738</v>
+      </c>
+      <c r="K30" s="8">
+        <v>2729.8850574712642</v>
+      </c>
+      <c r="L30" s="9">
+        <v>2473.9583333333335</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="14">
+        <v>291600</v>
+      </c>
+      <c r="E31" s="15">
+        <v>81</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4</v>
+      </c>
+      <c r="G31" s="15">
+        <v>10</v>
+      </c>
+      <c r="H31" s="14">
+        <v>29160</v>
+      </c>
+      <c r="I31" s="16">
+        <v>5.1732396615040713E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.21574430304823913</v>
+      </c>
+      <c r="K31" s="17">
+        <v>3351.7241379310344</v>
+      </c>
+      <c r="L31" s="18">
+        <v>3037.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5">
+        <v>193600</v>
+      </c>
+      <c r="E32" s="6">
+        <v>88</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5">
+        <v>16133.333333333334</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3.434633739599411E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.14323764427345367</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2225.2873563218391</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2016.6666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="5">
+        <v>1406600</v>
+      </c>
+      <c r="E34" s="6">
+        <v>555</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>63</v>
+      </c>
+      <c r="H34" s="5">
+        <v>22326.984126984127</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.24954317242358118</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>16167.816091954022</v>
+      </c>
+      <c r="L34" s="9">
+        <v>14652.083333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5">
+        <v>160200</v>
+      </c>
+      <c r="E35" s="6">
+        <v>89</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5">
+        <v>16020</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2.8420884560114962E-2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.1138916536328736</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1841.3793103448277</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1668.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5">
+        <v>285000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>75</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
-        <v>75000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="H36" s="5">
+        <v>25909.090909090908</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5.0561498749268186E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.20261623773638562</v>
+      </c>
+      <c r="K36" s="8">
+        <v>3275.8620689655172</v>
+      </c>
+      <c r="L36" s="9">
+        <v>2968.75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5">
+        <v>160500</v>
+      </c>
+      <c r="E37" s="6">
+        <v>107</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>11</v>
+      </c>
+      <c r="H37" s="5">
+        <v>14590.90909090909</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2.8474107190377348E-2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.11410493388312243</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1844.8275862068965</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1671.875</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5">
+        <v>242500</v>
+      </c>
+      <c r="E38" s="6">
+        <v>97</v>
+      </c>
+      <c r="F38" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25000</v>
-      </c>
-      <c r="I13" s="8">
-        <v>3.5890319184571945E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>9.7352024922118377E-2</v>
-      </c>
-      <c r="K13" s="9">
-        <v>862.06896551724139</v>
-      </c>
-      <c r="L13" s="10">
-        <v>781.25</v>
+      <c r="G38" s="6">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>24250</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4.3021626128763285E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.1724015356178018</v>
+      </c>
+      <c r="K38" s="8">
+        <v>2787.3563218390805</v>
+      </c>
+      <c r="L38" s="9">
+        <v>2526.0416666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7">
-        <v>185000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>74</v>
-      </c>
-      <c r="F14" s="2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="C39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="14">
+        <v>378000</v>
+      </c>
+      <c r="E39" s="15">
+        <v>105</v>
+      </c>
+      <c r="F39" s="15">
+        <v>2</v>
+      </c>
+      <c r="G39" s="15">
+        <v>11</v>
+      </c>
+      <c r="H39" s="14">
+        <v>34363.63636363636</v>
+      </c>
+      <c r="I39" s="16">
+        <v>6.7060514130608331E-2</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.26873311531352195</v>
+      </c>
+      <c r="K39" s="17">
+        <v>4344.8275862068967</v>
+      </c>
+      <c r="L39" s="18">
+        <v>3937.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5">
+        <v>180400</v>
+      </c>
+      <c r="E40" s="6">
+        <v>82</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5</v>
+      </c>
+      <c r="G40" s="6">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5">
+        <v>18040</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3.2004541664449056E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.12825252381629462</v>
+      </c>
+      <c r="K40" s="8">
+        <v>2073.5632183908046</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1879.1666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" s="5">
+        <v>5636700</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2193</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>256</v>
+      </c>
+      <c r="H42" s="5">
+        <v>22018.359375</v>
+      </c>
+      <c r="I42" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7">
-        <v>23125</v>
-      </c>
-      <c r="I14" s="8">
-        <v>8.8529453988610812E-2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.24013499480789199</v>
-      </c>
-      <c r="K14" s="9">
-        <v>2126.4367816091954</v>
-      </c>
-      <c r="L14" s="10">
-        <v>1927.0833333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12">
-        <v>162000</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45</v>
-      </c>
-      <c r="F15" s="11">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11">
-        <v>4</v>
-      </c>
-      <c r="H15" s="12">
-        <v>40500</v>
-      </c>
-      <c r="I15" s="13">
-        <v>7.7523089438675405E-2</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.2102803738317757</v>
-      </c>
-      <c r="K15" s="14">
-        <v>1862.0689655172414</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1687.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>83600</v>
-      </c>
-      <c r="E16" s="2">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16720</v>
-      </c>
-      <c r="I16" s="8">
-        <v>4.0005742451069533E-2</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.10851505711318796</v>
-      </c>
-      <c r="K16" s="9">
-        <v>960.919540229885</v>
-      </c>
-      <c r="L16" s="10">
-        <v>870.83333333333337</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7">
-        <v>459500</v>
-      </c>
-      <c r="E18" s="2">
-        <v>200</v>
-      </c>
-      <c r="G18" s="2">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>19978.260869565216</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.21988802220414413</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>5281.6091954022986</v>
-      </c>
-      <c r="L18" s="10">
-        <v>4786.458333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>36000</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>36000</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1.7227353208594535E-2</v>
-      </c>
-      <c r="J19" s="8">
-        <v>7.8346028291621322E-2</v>
-      </c>
-      <c r="K19" s="9">
-        <v>413.79310344827587</v>
-      </c>
-      <c r="L19" s="10">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7">
-        <v>45600</v>
-      </c>
-      <c r="E20" s="2">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>22800</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2.1821314064219745E-2</v>
-      </c>
-      <c r="J20" s="8">
-        <v>9.9238302502720352E-2</v>
-      </c>
-      <c r="K20" s="9">
-        <v>524.13793103448279</v>
-      </c>
-      <c r="L20" s="10">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>33000</v>
-      </c>
-      <c r="E21" s="2">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11000</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1.5791740441211656E-2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>7.181719260065289E-2</v>
-      </c>
-      <c r="K21" s="9">
-        <v>379.31034482758622</v>
-      </c>
-      <c r="L21" s="10">
-        <v>343.75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7">
-        <v>92500</v>
-      </c>
-      <c r="E22" s="2">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>6</v>
-      </c>
-      <c r="H22" s="7">
-        <v>15416.666666666666</v>
-      </c>
-      <c r="I22" s="8">
-        <v>4.4264726994305406E-2</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.20130576713819368</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1063.2183908045977</v>
-      </c>
-      <c r="L22" s="10">
-        <v>963.54166666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="12">
-        <v>32400</v>
-      </c>
-      <c r="E23" s="11">
-        <v>9</v>
-      </c>
-      <c r="F23" s="11">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2</v>
-      </c>
-      <c r="H23" s="12">
-        <v>16200</v>
-      </c>
-      <c r="I23" s="13">
-        <v>1.5504617887735082E-2</v>
-      </c>
-      <c r="J23" s="13">
-        <v>7.0511425462459199E-2</v>
-      </c>
-      <c r="K23" s="14">
-        <v>372.41379310344826</v>
-      </c>
-      <c r="L23" s="15">
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="7">
-        <v>220000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7">
-        <v>24444.444444444445</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.10527826960807772</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.47878128400435255</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2528.7356321839079</v>
-      </c>
-      <c r="L24" s="10">
-        <v>2291.6666666666665</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="7">
-        <v>304000</v>
-      </c>
-      <c r="E26" s="2">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2">
-        <v>15</v>
-      </c>
-      <c r="H26" s="7">
-        <v>20266.666666666668</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.1454754270947983</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>3494.2528735632186</v>
-      </c>
-      <c r="L26" s="10">
-        <v>3166.6666666666665</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3600</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3600</v>
-      </c>
-      <c r="I27" s="8">
-        <v>1.7227353208594536E-3</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1.1842105263157895E-2</v>
-      </c>
-      <c r="K27" s="9">
-        <v>41.379310344827587</v>
-      </c>
-      <c r="L27" s="10">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="7">
-        <v>30400</v>
-      </c>
-      <c r="E28" s="2">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>30400</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1.4547542709479829E-2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="9">
-        <v>349.42528735632186</v>
-      </c>
-      <c r="L28" s="10">
-        <v>316.66666666666669</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7">
-        <v>12000</v>
-      </c>
-      <c r="E29" s="2">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="7">
-        <v>6000</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5.7424510695315116E-3</v>
-      </c>
-      <c r="J29" s="8">
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="K29" s="9">
-        <v>137.93103448275863</v>
-      </c>
-      <c r="L29" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="7">
-        <v>110000</v>
-      </c>
-      <c r="E30" s="2">
-        <v>44</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4</v>
-      </c>
-      <c r="H30" s="7">
-        <v>27500</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5.263913480403886E-2</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.36184210526315791</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1264.367816091954</v>
-      </c>
-      <c r="L30" s="10">
-        <v>1145.8333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="12">
-        <v>86400</v>
-      </c>
-      <c r="E31" s="11">
-        <v>24</v>
-      </c>
-      <c r="F31" s="11">
-        <v>3</v>
-      </c>
-      <c r="G31" s="11">
-        <v>3</v>
-      </c>
-      <c r="H31" s="12">
-        <v>28800</v>
-      </c>
-      <c r="I31" s="13">
-        <v>4.1345647700626882E-2</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0.28421052631578947</v>
-      </c>
-      <c r="K31" s="14">
-        <v>993.10344827586209</v>
-      </c>
-      <c r="L31" s="15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="7">
-        <v>61600</v>
-      </c>
-      <c r="E32" s="2">
-        <v>28</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-      <c r="H32" s="7">
-        <v>15400</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2.9477915490261759E-2</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.20263157894736841</v>
-      </c>
-      <c r="K32" s="9">
-        <v>708.0459770114943</v>
-      </c>
-      <c r="L32" s="10">
-        <v>641.66666666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="7">
-        <v>555800</v>
-      </c>
-      <c r="E34" s="2">
-        <v>209</v>
-      </c>
-      <c r="G34" s="2">
-        <v>25</v>
-      </c>
-      <c r="H34" s="7">
-        <v>22232</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0.26597119203713454</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9">
-        <v>6388.5057471264372</v>
-      </c>
-      <c r="L34" s="10">
-        <v>5789.583333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="7">
-        <v>48600</v>
-      </c>
-      <c r="E35" s="2">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4</v>
-      </c>
-      <c r="H35" s="7">
-        <v>12150</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2.3256926831602621E-2</v>
-      </c>
-      <c r="J35" s="8">
-        <v>8.7441525728679387E-2</v>
-      </c>
-      <c r="K35" s="9">
-        <v>558.62068965517244</v>
-      </c>
-      <c r="L35" s="10">
-        <v>506.25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7">
-        <v>159600</v>
-      </c>
-      <c r="E36" s="2">
-        <v>42</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>6</v>
-      </c>
-      <c r="H36" s="7">
-        <v>26600</v>
-      </c>
-      <c r="I36" s="8">
-        <v>7.6374599224769107E-2</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.2871536523929471</v>
-      </c>
-      <c r="K36" s="9">
-        <v>1834.4827586206898</v>
-      </c>
-      <c r="L36" s="10">
-        <v>1662.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="7">
-        <v>55500</v>
-      </c>
-      <c r="E37" s="2">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2">
-        <v>4</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4</v>
-      </c>
-      <c r="H37" s="7">
-        <v>13875</v>
-      </c>
-      <c r="I37" s="8">
-        <v>2.6558836196583242E-2</v>
-      </c>
-      <c r="J37" s="8">
-        <v>9.9856063332133857E-2</v>
-      </c>
-      <c r="K37" s="9">
-        <v>637.93103448275861</v>
-      </c>
-      <c r="L37" s="10">
-        <v>578.125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="7">
-        <v>102500</v>
-      </c>
-      <c r="E38" s="2">
-        <v>41</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2">
-        <v>4</v>
-      </c>
-      <c r="H38" s="7">
-        <v>25625</v>
-      </c>
-      <c r="I38" s="8">
-        <v>4.9050102885581662E-2</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.18441885570349045</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1178.16091954023</v>
-      </c>
-      <c r="L38" s="10">
-        <v>1067.7083333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="12">
-        <v>136800</v>
-      </c>
-      <c r="E39" s="11">
-        <v>38</v>
-      </c>
-      <c r="F39" s="11">
-        <v>3</v>
-      </c>
-      <c r="G39" s="11">
-        <v>5</v>
-      </c>
-      <c r="H39" s="12">
-        <v>27360</v>
-      </c>
-      <c r="I39" s="13">
-        <v>6.5463942192659233E-2</v>
-      </c>
-      <c r="J39" s="13">
-        <v>0.24613170205109752</v>
-      </c>
-      <c r="K39" s="14">
-        <v>1572.4137931034484</v>
-      </c>
-      <c r="L39" s="15">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7">
-        <v>52800</v>
-      </c>
-      <c r="E40" s="2">
-        <v>24</v>
-      </c>
-      <c r="F40" s="2">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2</v>
-      </c>
-      <c r="H40" s="7">
-        <v>26400</v>
-      </c>
-      <c r="I40" s="8">
-        <v>2.5266784705938652E-2</v>
-      </c>
-      <c r="J40" s="8">
-        <v>9.499820079165168E-2</v>
-      </c>
-      <c r="K40" s="9">
-        <v>606.89655172413791</v>
-      </c>
-      <c r="L40" s="10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2089700</v>
-      </c>
-      <c r="E42" s="2">
-        <v>806</v>
-      </c>
-      <c r="G42" s="2">
-        <v>92</v>
-      </c>
-      <c r="H42" s="7">
-        <v>22714.130434782608</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9">
-        <v>24019.540229885057</v>
-      </c>
-      <c r="L42" s="10">
-        <v>21767.708333333332</v>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8">
+        <v>64789.65517241379</v>
+      </c>
+      <c r="L42" s="9">
+        <v>58715.625</v>
       </c>
     </row>
   </sheetData>
